--- a/classfiers/nano/svm/nearmiss/nano-svm-linear-nearmiss-results.xlsx
+++ b/classfiers/nano/svm/nearmiss/nano-svm-linear-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8780487804878048</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9674999999999999</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9184210526315789</v>
+        <v>0.6476190476190476</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.972972972972973</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9973684210526316</v>
+        <v>0.5595238095238095</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C6" t="n">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9268292682926829</v>
+        <v>0.4210526315789474</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9657894736842105</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9170868347338935</v>
+        <v>0.47501155001155</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9068421052631578</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9111257599062477</v>
+        <v>0.4692841729993432</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9698157894736841</v>
+        <v>0.6191428571428572</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/svm/nearmiss/nano-svm-linear-nearmiss-results.xlsx
+++ b/classfiers/nano/svm/nearmiss/nano-svm-linear-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4594594594594595</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C2" t="n">
-        <v>0.85</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5964912280701754</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.6620498614958448</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.625</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.7391304347826088</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6476190476190476</v>
+        <v>0.8587257617728531</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.6875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5595238095238095</v>
+        <v>0.6343490304709141</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E5" t="n">
-        <v>0.75</v>
+        <v>0.9502923976608187</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4444444444444444</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4210526315789474</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E6" t="n">
-        <v>0.46</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.47501155001155</v>
+        <v>0.7075435729847495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5047619047619047</v>
+        <v>0.7578947368421053</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4692841729993432</v>
+        <v>0.6942950896519395</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6191428571428572</v>
+        <v>0.7710834102800861</v>
       </c>
     </row>
   </sheetData>
